--- a/Project/Data/deck_sample.xlsx
+++ b/Project/Data/deck_sample.xlsx
@@ -28,7 +28,7 @@
     <t>isramp</t>
   </si>
   <si>
-    <t>ramp_value</t>
+    <t>mana_value</t>
   </si>
   <si>
     <t>isdraw</t>
@@ -352,7 +352,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -410,8 +410,8 @@
       <c r="E3" s="3">
         <v>0.0</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.0</v>
+      <c r="F3" s="4">
+        <v>1.0</v>
       </c>
       <c r="G3" s="3">
         <v>0.0</v>
@@ -439,8 +439,8 @@
       <c r="E4" s="3">
         <v>0.0</v>
       </c>
-      <c r="F4" s="3">
-        <v>0.0</v>
+      <c r="F4" s="4">
+        <v>1.0</v>
       </c>
       <c r="G4" s="3">
         <v>0.0</v>
@@ -468,8 +468,8 @@
       <c r="E5" s="3">
         <v>0.0</v>
       </c>
-      <c r="F5" s="3">
-        <v>0.0</v>
+      <c r="F5" s="4">
+        <v>1.0</v>
       </c>
       <c r="G5" s="3">
         <v>0.0</v>
@@ -497,8 +497,8 @@
       <c r="E6" s="3">
         <v>0.0</v>
       </c>
-      <c r="F6" s="3">
-        <v>0.0</v>
+      <c r="F6" s="4">
+        <v>1.0</v>
       </c>
       <c r="G6" s="3">
         <v>0.0</v>
@@ -526,8 +526,8 @@
       <c r="E7" s="3">
         <v>0.0</v>
       </c>
-      <c r="F7" s="3">
-        <v>0.0</v>
+      <c r="F7" s="4">
+        <v>1.0</v>
       </c>
       <c r="G7" s="3">
         <v>0.0</v>
@@ -555,8 +555,8 @@
       <c r="E8" s="3">
         <v>0.0</v>
       </c>
-      <c r="F8" s="3">
-        <v>0.0</v>
+      <c r="F8" s="4">
+        <v>1.0</v>
       </c>
       <c r="G8" s="3">
         <v>0.0</v>
@@ -584,8 +584,8 @@
       <c r="E9" s="3">
         <v>0.0</v>
       </c>
-      <c r="F9" s="3">
-        <v>0.0</v>
+      <c r="F9" s="4">
+        <v>1.0</v>
       </c>
       <c r="G9" s="3">
         <v>0.0</v>
@@ -613,8 +613,8 @@
       <c r="E10" s="3">
         <v>0.0</v>
       </c>
-      <c r="F10" s="3">
-        <v>0.0</v>
+      <c r="F10" s="4">
+        <v>1.0</v>
       </c>
       <c r="G10" s="3">
         <v>0.0</v>
@@ -642,8 +642,8 @@
       <c r="E11" s="3">
         <v>0.0</v>
       </c>
-      <c r="F11" s="3">
-        <v>0.0</v>
+      <c r="F11" s="4">
+        <v>1.0</v>
       </c>
       <c r="G11" s="3">
         <v>0.0</v>
@@ -671,8 +671,8 @@
       <c r="E12" s="3">
         <v>0.0</v>
       </c>
-      <c r="F12" s="3">
-        <v>0.0</v>
+      <c r="F12" s="4">
+        <v>1.0</v>
       </c>
       <c r="G12" s="3">
         <v>0.0</v>
@@ -700,8 +700,8 @@
       <c r="E13" s="3">
         <v>0.0</v>
       </c>
-      <c r="F13" s="3">
-        <v>0.0</v>
+      <c r="F13" s="4">
+        <v>1.0</v>
       </c>
       <c r="G13" s="3">
         <v>0.0</v>
@@ -729,8 +729,8 @@
       <c r="E14" s="3">
         <v>0.0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0.0</v>
+      <c r="F14" s="4">
+        <v>1.0</v>
       </c>
       <c r="G14" s="3">
         <v>0.0</v>
@@ -758,8 +758,8 @@
       <c r="E15" s="3">
         <v>0.0</v>
       </c>
-      <c r="F15" s="3">
-        <v>0.0</v>
+      <c r="F15" s="4">
+        <v>1.0</v>
       </c>
       <c r="G15" s="3">
         <v>0.0</v>
@@ -787,8 +787,8 @@
       <c r="E16" s="3">
         <v>0.0</v>
       </c>
-      <c r="F16" s="3">
-        <v>0.0</v>
+      <c r="F16" s="4">
+        <v>1.0</v>
       </c>
       <c r="G16" s="3">
         <v>0.0</v>
@@ -816,8 +816,8 @@
       <c r="E17" s="3">
         <v>0.0</v>
       </c>
-      <c r="F17" s="3">
-        <v>0.0</v>
+      <c r="F17" s="4">
+        <v>1.0</v>
       </c>
       <c r="G17" s="3">
         <v>0.0</v>
@@ -845,8 +845,8 @@
       <c r="E18" s="3">
         <v>0.0</v>
       </c>
-      <c r="F18" s="3">
-        <v>0.0</v>
+      <c r="F18" s="4">
+        <v>1.0</v>
       </c>
       <c r="G18" s="3">
         <v>0.0</v>
@@ -874,8 +874,8 @@
       <c r="E19" s="3">
         <v>0.0</v>
       </c>
-      <c r="F19" s="3">
-        <v>0.0</v>
+      <c r="F19" s="4">
+        <v>1.0</v>
       </c>
       <c r="G19" s="3">
         <v>0.0</v>
@@ -903,8 +903,8 @@
       <c r="E20" s="3">
         <v>0.0</v>
       </c>
-      <c r="F20" s="3">
-        <v>0.0</v>
+      <c r="F20" s="4">
+        <v>1.0</v>
       </c>
       <c r="G20" s="3">
         <v>0.0</v>
@@ -932,8 +932,8 @@
       <c r="E21" s="3">
         <v>0.0</v>
       </c>
-      <c r="F21" s="3">
-        <v>0.0</v>
+      <c r="F21" s="4">
+        <v>1.0</v>
       </c>
       <c r="G21" s="3">
         <v>0.0</v>
@@ -961,8 +961,8 @@
       <c r="E22" s="3">
         <v>0.0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0.0</v>
+      <c r="F22" s="4">
+        <v>1.0</v>
       </c>
       <c r="G22" s="3">
         <v>0.0</v>
@@ -990,8 +990,8 @@
       <c r="E23" s="3">
         <v>0.0</v>
       </c>
-      <c r="F23" s="3">
-        <v>0.0</v>
+      <c r="F23" s="4">
+        <v>1.0</v>
       </c>
       <c r="G23" s="3">
         <v>0.0</v>
@@ -1019,8 +1019,8 @@
       <c r="E24" s="3">
         <v>0.0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0.0</v>
+      <c r="F24" s="4">
+        <v>1.0</v>
       </c>
       <c r="G24" s="3">
         <v>0.0</v>
@@ -1048,8 +1048,8 @@
       <c r="E25" s="3">
         <v>0.0</v>
       </c>
-      <c r="F25" s="3">
-        <v>0.0</v>
+      <c r="F25" s="4">
+        <v>1.0</v>
       </c>
       <c r="G25" s="3">
         <v>0.0</v>
@@ -1077,8 +1077,8 @@
       <c r="E26" s="3">
         <v>0.0</v>
       </c>
-      <c r="F26" s="3">
-        <v>0.0</v>
+      <c r="F26" s="4">
+        <v>1.0</v>
       </c>
       <c r="G26" s="3">
         <v>0.0</v>
@@ -1106,8 +1106,8 @@
       <c r="E27" s="3">
         <v>0.0</v>
       </c>
-      <c r="F27" s="3">
-        <v>0.0</v>
+      <c r="F27" s="4">
+        <v>1.0</v>
       </c>
       <c r="G27" s="3">
         <v>0.0</v>
@@ -1135,8 +1135,8 @@
       <c r="E28" s="3">
         <v>0.0</v>
       </c>
-      <c r="F28" s="3">
-        <v>0.0</v>
+      <c r="F28" s="4">
+        <v>1.0</v>
       </c>
       <c r="G28" s="3">
         <v>0.0</v>
@@ -1164,8 +1164,8 @@
       <c r="E29" s="3">
         <v>0.0</v>
       </c>
-      <c r="F29" s="3">
-        <v>0.0</v>
+      <c r="F29" s="4">
+        <v>1.0</v>
       </c>
       <c r="G29" s="3">
         <v>0.0</v>
@@ -1193,8 +1193,8 @@
       <c r="E30" s="3">
         <v>0.0</v>
       </c>
-      <c r="F30" s="3">
-        <v>0.0</v>
+      <c r="F30" s="4">
+        <v>1.0</v>
       </c>
       <c r="G30" s="3">
         <v>0.0</v>
@@ -1222,8 +1222,8 @@
       <c r="E31" s="3">
         <v>0.0</v>
       </c>
-      <c r="F31" s="3">
-        <v>0.0</v>
+      <c r="F31" s="4">
+        <v>1.0</v>
       </c>
       <c r="G31" s="3">
         <v>0.0</v>
@@ -1251,8 +1251,8 @@
       <c r="E32" s="3">
         <v>0.0</v>
       </c>
-      <c r="F32" s="3">
-        <v>0.0</v>
+      <c r="F32" s="4">
+        <v>1.0</v>
       </c>
       <c r="G32" s="3">
         <v>0.0</v>
@@ -1280,8 +1280,8 @@
       <c r="E33" s="3">
         <v>0.0</v>
       </c>
-      <c r="F33" s="3">
-        <v>0.0</v>
+      <c r="F33" s="4">
+        <v>1.0</v>
       </c>
       <c r="G33" s="3">
         <v>0.0</v>
@@ -1309,8 +1309,8 @@
       <c r="E34" s="3">
         <v>0.0</v>
       </c>
-      <c r="F34" s="3">
-        <v>0.0</v>
+      <c r="F34" s="4">
+        <v>1.0</v>
       </c>
       <c r="G34" s="3">
         <v>0.0</v>
@@ -1338,8 +1338,8 @@
       <c r="E35" s="3">
         <v>0.0</v>
       </c>
-      <c r="F35" s="3">
-        <v>0.0</v>
+      <c r="F35" s="4">
+        <v>1.0</v>
       </c>
       <c r="G35" s="3">
         <v>0.0</v>
@@ -1367,8 +1367,8 @@
       <c r="E36" s="3">
         <v>0.0</v>
       </c>
-      <c r="F36" s="3">
-        <v>0.0</v>
+      <c r="F36" s="4">
+        <v>1.0</v>
       </c>
       <c r="G36" s="3">
         <v>0.0</v>
@@ -1396,8 +1396,8 @@
       <c r="E37" s="3">
         <v>0.0</v>
       </c>
-      <c r="F37" s="3">
-        <v>0.0</v>
+      <c r="F37" s="4">
+        <v>1.0</v>
       </c>
       <c r="G37" s="3">
         <v>0.0</v>
@@ -1425,8 +1425,8 @@
       <c r="E38" s="3">
         <v>0.0</v>
       </c>
-      <c r="F38" s="3">
-        <v>0.0</v>
+      <c r="F38" s="4">
+        <v>1.0</v>
       </c>
       <c r="G38" s="3">
         <v>0.0</v>
